--- a/medicine/Hématologie/Classe_ATC_B02/Classe_ATC_B02.xlsx
+++ b/medicine/Hématologie/Classe_ATC_B02/Classe_ATC_B02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC B02, dénommée « Antihémorragiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QB02[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique B de la classification, intitulé « Sang et organes hématopoïétiques ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC B02, dénommée « Antihémorragiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QB02. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique B de la classification, intitulé « Sang et organes hématopoïétiques ».
 </t>
         </is>
       </c>
@@ -513,14 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B02AA Acides aminés
-B02AA01 Aminocaproïque acide
+          <t>B02AA Acides aminés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B02AA01 Aminocaproïque acide
 B02AA02 Tranexamique acide
-B02AA03 Aminométhylbenzoïque acide (en)
-B02AB Inhibiteurs de protéinases
-B02AB01 Aprotinine (en)
-B02AB02 Alfa1-antitrypsine
-B02AB04 Camostat</t>
+B02AA03 Aminométhylbenzoïque acide (en)</t>
         </is>
       </c>
     </row>
@@ -545,18 +558,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>B02A Antifibrinolytiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B02AB Inhibiteurs de protéinases</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B02AB01 Aprotinine (en)
+B02AB02 Alfa1-antitrypsine
+B02AB04 Camostat</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>B02B Vitamine K et autres hémostatiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B02BA Vitamine K
-B02BA01 Phytoménadione
-B02BA02 Ménadione
-B02BB Fibrinogène
-B02BB01 Fibrinogène humain
-B02BC Hémostatiques locaux
-B02BC01 Éponge de gélatine absorbable
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B02BA Vitamine K</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B02BA01 Phytoménadione
+B02BA02 Ménadione</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B02B Vitamine K et autres hémostatiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B02BB Fibrinogène</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B02BB01 Fibrinogène humain</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B02B Vitamine K et autres hémostatiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B02BC Hémostatiques locaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B02BC01 Éponge de gélatine absorbable
 B02BC02 compresse ou éponge de cellulose oxydée
 B02BC03 Tétragalacturonique acide hydroxyméthylester (en)
 B02BC05 Adrénalone
@@ -564,9 +688,43 @@
 B02BC07 Collagène
 B02BC08 Calcium alginate
 B02BC09 Épinéphrine
-B02BC30 Associations d'hémostatiques locaux
-B02BD Facteurs de la coagulation sanguine
-B02BD01 Facteurs de coagulation IX, II, VII et X en association
+B02BC30 Associations d'hémostatiques locaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B02B Vitamine K et autres hémostatiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B02BD Facteurs de la coagulation sanguine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B02BD01 Facteurs de coagulation IX, II, VII et X en association
 B02BD02 Facteur VIII de coagulation
 B02BD03 Complexe prothrombique activé
 B02BD04 Facteur IX de coagulation
@@ -578,9 +736,43 @@
 B02BD11 Catridécacog (en)
 B02BD13 Facteur X de coagulation
 B02BD14 Susoctocog alfa
-B02BD30 Thrombine
-B02BX Autres hémostatiques systémiques
-B02BX01 Étamsylate (en)
+B02BD30 Thrombine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B02B Vitamine K et autres hémostatiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B02BX Autres hémostatiques systémiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B02BX01 Étamsylate (en)
 B02BX02 Carbazochrome (en)
 B02BX03 Batroxobine (en)
 B02BX04 Romiplostim
